--- a/01_Initial_Glider_Design/results/nausicaa_rollin_timeseries.xlsx
+++ b/01_Initial_Glider_Design/results/nausicaa_rollin_timeseries.xlsx
@@ -471,690 +471,690 @@
         <v>2.5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2509432548197344</v>
+        <v>-0.5519833787224694</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.37798939844673</v>
+        <v>-31.62631796216882</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02511674655200002</v>
+        <v>0.02679286441015179</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1253764134830025</v>
+        <v>0.1175626815244795</v>
       </c>
       <c r="C3" t="n">
-        <v>2.467860142792479</v>
+        <v>2.427600496094155</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2509432548197344</v>
+        <v>-0.5519833787224694</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.37798939844673</v>
+        <v>-31.62631796216882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.05023349310400003</v>
+        <v>0.05358572882030358</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2507528269660049</v>
+        <v>0.2351253630489589</v>
       </c>
       <c r="C4" t="n">
-        <v>2.435720285584959</v>
+        <v>2.355200992188309</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2495867952737013</v>
+        <v>-0.5505363984591253</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.30026999137881</v>
+        <v>-31.54341210004048</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.07535023965600005</v>
+        <v>0.08037859323045538</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3761727215065583</v>
+        <v>0.3527926821165875</v>
       </c>
       <c r="C5" t="n">
-        <v>2.403750525926518</v>
+        <v>2.28297167489626</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2468716910333985</v>
+        <v>-0.5476401069625383</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.14470597747138</v>
+        <v>-31.37746682104641</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1004669862080001</v>
+        <v>0.1071714576406072</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5016789548861098</v>
+        <v>0.4706687045231495</v>
       </c>
       <c r="C6" t="n">
-        <v>2.372121411774166</v>
+        <v>2.211083458931149</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2427935576992351</v>
+        <v>-0.5432898272486485</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.91104614913221</v>
+        <v>-31.12821415373915</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1255837327600001</v>
+        <v>0.1339643220507589</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6273131319964499</v>
+        <v>0.588856344394693</v>
       </c>
       <c r="C7" t="n">
-        <v>2.341004390371126</v>
+        <v>2.139708715256421</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2373457832201658</v>
+        <v>-0.5374785060239089</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.59891166374245</v>
+        <v>-30.79524997416677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1507004793120001</v>
+        <v>0.1607571864609108</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7531149624868686</v>
+        <v>0.7074567678158109</v>
       </c>
       <c r="C8" t="n">
-        <v>2.310572253994331</v>
+        <v>2.069021999266992</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2305194848042916</v>
+        <v>-0.5301966677203981</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.20779357481602</v>
+        <v>-30.3780313722789</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1758172258640001</v>
+        <v>0.1875500508710625</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8791215991407191</v>
+        <v>0.8265687715341899</v>
       </c>
       <c r="C9" t="n">
-        <v>2.28099958082485</v>
+        <v>1.999200778830569</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2223034505400527</v>
+        <v>-0.5214323522212152</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.73704948714026</v>
+        <v>-29.87587308385463</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2009339724160001</v>
+        <v>0.2143429152812143</v>
       </c>
       <c r="B10" t="n">
-        <v>1.005366950254159</v>
+        <v>0.9462881279635648</v>
       </c>
       <c r="C10" t="n">
-        <v>2.252463168971575</v>
+        <v>1.930426161789286</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2126840649056744</v>
+        <v>-0.5111710353989433</v>
       </c>
       <c r="E10" t="n">
-        <v>-12.18589928878161</v>
+        <v>-29.28794293769185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2260507189680002</v>
+        <v>0.2411357796913661</v>
       </c>
       <c r="B11" t="n">
-        <v>1.131880959025416</v>
+        <v>1.066706887296134</v>
       </c>
       <c r="C11" t="n">
-        <v>2.225142461369907</v>
+        <v>1.862883622202419</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2016452171022349</v>
+        <v>-0.4993955313314993</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.55341989895727</v>
+        <v>-28.61325625298818</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2511674655200002</v>
+        <v>0.2679286441015179</v>
       </c>
       <c r="B12" t="n">
-        <v>1.258688842627255</v>
+        <v>1.187912627011252</v>
       </c>
       <c r="C12" t="n">
-        <v>2.199219958873635</v>
+        <v>1.796763724190174</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1891681908769776</v>
+        <v>-0.4860858747730183</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.83853895537598</v>
+        <v>-27.8506691054186</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2762842120720002</v>
+        <v>0.2947215085116697</v>
       </c>
       <c r="B13" t="n">
-        <v>1.385810283225097</v>
+        <v>1.309987638422751</v>
       </c>
       <c r="C13" t="n">
-        <v>2.174881618346851</v>
+        <v>1.732262841700698</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.175231534200893</v>
+        <v>-0.4712191821346191</v>
       </c>
       <c r="E13" t="n">
-        <v>-10.04002734731351</v>
+        <v>-26.99887036192012</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.3014009586240002</v>
+        <v>0.3215143729218215</v>
       </c>
       <c r="B14" t="n">
-        <v>1.513258562714414</v>
+        <v>1.433008039133984</v>
       </c>
       <c r="C14" t="n">
-        <v>2.152317231926937</v>
+        <v>1.669583871847275</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1598109068194076</v>
+        <v>-0.4547694888616817</v>
       </c>
       <c r="E14" t="n">
-        <v>-9.156490480910524</v>
+        <v>-26.05637236309606</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3265177051760002</v>
+        <v>0.3483072373319733</v>
       </c>
       <c r="B15" t="n">
-        <v>1.64103963237927</v>
+        <v>1.557042799357591</v>
       </c>
       <c r="C15" t="n">
-        <v>2.131720782848725</v>
+        <v>1.608936938624636</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1428789032967711</v>
+        <v>-0.4367075606694426</v>
       </c>
       <c r="E15" t="n">
-        <v>-8.186358140362808</v>
+        <v>-25.0215001078124</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3516344517280002</v>
+        <v>0.375100101742125</v>
       </c>
       <c r="B16" t="n">
-        <v>1.769151108014146</v>
+        <v>1.682152668994323</v>
       </c>
       <c r="C16" t="n">
-        <v>2.113290772267641</v>
+        <v>1.550540082780178</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1244048487107337</v>
+        <v>-0.417000675603749</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.12787278208856</v>
+        <v>-23.89237876619877</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3767511982800003</v>
+        <v>0.4018929661522769</v>
       </c>
       <c r="B17" t="n">
-        <v>1.897581180298586</v>
+        <v>1.808388991139053</v>
       </c>
       <c r="C17" t="n">
-        <v>2.097230510363695</v>
+        <v>1.494619932347522</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1043545636088102</v>
+        <v>-0.3956123733121326</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.979076067714312</v>
+        <v>-22.66691931393916</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4018679448320003</v>
+        <v>0.4286858305624286</v>
       </c>
       <c r="B18" t="n">
-        <v>2.026307429363559</v>
+        <v>1.93579238627765</v>
       </c>
       <c r="C18" t="n">
-        <v>2.083748363608575</v>
+        <v>1.441412346796238</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.08269009419161066</v>
+        <v>-0.3725021672214425</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.737793404718534</v>
+        <v>-21.34280204126509</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4269846913840003</v>
+        <v>0.4554786949725804</v>
       </c>
       <c r="B19" t="n">
-        <v>2.155295531535331</v>
+        <v>2.064391289840305</v>
       </c>
       <c r="C19" t="n">
-        <v>2.073057948385007</v>
+        <v>1.391163025850361</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.05936940291844534</v>
+        <v>-0.3476252144966121</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.40161621943859</v>
+        <v>-19.91745764298583</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4521014379360003</v>
+        <v>0.4822715593827323</v>
       </c>
       <c r="B20" t="n">
-        <v>2.284497845183677</v>
+        <v>2.194200323968527</v>
       </c>
       <c r="C20" t="n">
-        <v>2.06537825909979</v>
+        <v>1.34412807170202</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.03434601380564518</v>
+        <v>-0.3209319376686447</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.967881634161528</v>
+        <v>-18.38804553936895</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4772181844880004</v>
+        <v>0.509064423792884</v>
       </c>
       <c r="B21" t="n">
-        <v>2.41385186143502</v>
+        <v>2.325218482318278</v>
       </c>
       <c r="C21" t="n">
-        <v>2.060933716453054</v>
+        <v>1.300574490498192</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.007568605570824147</v>
+        <v>-0.2923675906281415</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.4336491560074269</v>
+        <v>-16.75142900940111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.5023349310400004</v>
+        <v>0.5358572882030358</v>
       </c>
       <c r="B22" t="n">
-        <v>2.543278504239688</v>
+        <v>2.45742710444505</v>
       </c>
       <c r="C22" t="n">
-        <v>2.059954118521856</v>
+        <v>1.260780615487341</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02101945558163326</v>
+        <v>-0.2618717602321279</v>
       </c>
       <c r="E22" t="n">
-        <v>1.204326092490287</v>
+        <v>-15.00414663496276</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5274516775920004</v>
+        <v>0.5626501526131876</v>
       </c>
       <c r="B23" t="n">
-        <v>2.672680262913176</v>
+        <v>2.590787613785866</v>
       </c>
       <c r="C23" t="n">
-        <v>2.062674473668019</v>
+        <v>1.225036429926653</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05148065339907613</v>
+        <v>-0.2293777930006249</v>
       </c>
       <c r="E23" t="n">
-        <v>2.949624166342878</v>
+        <v>-13.14237945296124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.5525684241440004</v>
+        <v>0.5894430170233393</v>
       </c>
       <c r="B24" t="n">
-        <v>2.801939138819561</v>
+        <v>2.725238990460995</v>
       </c>
       <c r="C24" t="n">
-        <v>2.069334689840852</v>
+        <v>1.193643762578983</v>
       </c>
       <c r="D24" t="n">
-        <v>0.08388394115109128</v>
+        <v>-0.1948121342002995</v>
       </c>
       <c r="E24" t="n">
-        <v>4.806195796881299</v>
+        <v>-11.16191308761336</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5776851706960004</v>
+        <v>0.6162358814334912</v>
       </c>
       <c r="B25" t="n">
-        <v>2.930914386358628</v>
+        <v>2.860694947067272</v>
       </c>
       <c r="C25" t="n">
-        <v>2.080179089429879</v>
+        <v>1.166916322130689</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1183054577686408</v>
+        <v>-0.1580935639151607</v>
       </c>
       <c r="E25" t="n">
-        <v>6.778403423506318</v>
+        <v>-9.058093980520432</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.6028019172480004</v>
+        <v>0.643028745843643</v>
       </c>
       <c r="B26" t="n">
-        <v>3.059440026902396</v>
+        <v>2.997040772343073</v>
       </c>
       <c r="C26" t="n">
-        <v>2.095455712198248</v>
+        <v>1.145179528832243</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1548293581383779</v>
+        <v>-0.1191323113441497</v>
       </c>
       <c r="E26" t="n">
-        <v>8.871068766048557</v>
+        <v>-6.825778643658277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.6279186638000004</v>
+        <v>0.6698216102537947</v>
       </c>
       <c r="B27" t="n">
-        <v>3.18732211287343</v>
+        <v>3.134129804094506</v>
       </c>
       <c r="C27" t="n">
-        <v>2.115415360699661</v>
+        <v>1.12877009171535</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1935487790884375</v>
+        <v>-0.07782902435214697</v>
       </c>
       <c r="E27" t="n">
-        <v>11.08952817167739</v>
+        <v>-4.459274618998927</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.6530354103520004</v>
+        <v>0.6966144746639465</v>
       </c>
       <c r="B28" t="n">
-        <v>3.314335717877241</v>
+        <v>3.27177948916313</v>
       </c>
       <c r="C28" t="n">
-        <v>2.140310332577104</v>
+        <v>1.118035267378297</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2345669675888626</v>
+        <v>-0.03407356598126147</v>
       </c>
       <c r="E28" t="n">
-        <v>13.4396972560238</v>
+        <v>-1.95227152368682</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.6781521569040004</v>
+        <v>0.7234073390740984</v>
       </c>
       <c r="B29" t="n">
-        <v>3.440221627861046</v>
+        <v>3.409766984624733</v>
       </c>
       <c r="C29" t="n">
-        <v>2.170392771784492</v>
+        <v>1.113331720921328</v>
       </c>
       <c r="D29" t="n">
-        <v>0.277998604031769</v>
+        <v>0.01225639713588913</v>
       </c>
       <c r="E29" t="n">
-        <v>15.92814672154891</v>
+        <v>0.7022398279226775</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.7032689034560005</v>
+        <v>0.7502002034842501</v>
       </c>
       <c r="B30" t="n">
-        <v>3.564682707920392</v>
+        <v>3.54782425106044</v>
       </c>
       <c r="C30" t="n">
-        <v>2.205912555453467</v>
+        <v>1.115023890339259</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3239713615833278</v>
+        <v>0.06129705818851452</v>
       </c>
       <c r="E30" t="n">
-        <v>18.56219170183142</v>
+        <v>3.512062730769705</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.7283856500080005</v>
+        <v>0.7769930678944019</v>
       </c>
       <c r="B31" t="n">
-        <v>3.687379919983331</v>
+        <v>3.685632585990573</v>
       </c>
       <c r="C31" t="n">
-        <v>2.247114614064261</v>
+        <v>1.123481731483603</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3726277530985735</v>
+        <v>0.1132004403527653</v>
       </c>
       <c r="E31" t="n">
-        <v>21.34999758199114</v>
+        <v>6.485907471235867</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7535023965600005</v>
+        <v>0.8037859323045538</v>
       </c>
       <c r="B32" t="n">
-        <v>3.807927968715411</v>
+        <v>3.822816543959968</v>
       </c>
       <c r="C32" t="n">
-        <v>2.294235558760625</v>
+        <v>1.139077690219444</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4241273307702625</v>
+        <v>0.1681367432299248</v>
       </c>
       <c r="E32" t="n">
-        <v>24.3007060292851</v>
+        <v>9.633525768149509</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.7786191431120005</v>
+        <v>0.8305787967147055</v>
       </c>
       <c r="B33" t="n">
-        <v>3.925890557414629</v>
+        <v>3.958937190159094</v>
       </c>
       <c r="C33" t="n">
-        <v>2.347499459763352</v>
+        <v>1.162182709833614</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4786493216726454</v>
+        <v>0.2262971542681229</v>
       </c>
       <c r="E33" t="n">
-        <v>27.42458599864231</v>
+        <v>12.96587185538434</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8037358896640006</v>
+        <v>0.8573716611248573</v>
       </c>
       <c r="B34" t="n">
-        <v>4.040775243597233</v>
+        <v>4.093484638154405</v>
       </c>
       <c r="C34" t="n">
-        <v>2.407112582176919</v>
+        <v>1.193161032754456</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5363958062508268</v>
+        <v>0.2878972393620664</v>
       </c>
       <c r="E34" t="n">
-        <v>30.7332158466894</v>
+        <v>16.49529674891404</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8288526362160006</v>
+        <v>0.8841645255350091</v>
       </c>
       <c r="B35" t="n">
-        <v>4.152027897182569</v>
+        <v>4.225869831259187</v>
       </c>
       <c r="C35" t="n">
-        <v>2.47325683781551</v>
+        <v>1.232363493131944</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5975955788673509</v>
+        <v>0.3531810610257711</v>
       </c>
       <c r="E35" t="n">
-        <v>34.23970452477653</v>
+        <v>20.23578420072905</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8539693827680006</v>
+        <v>0.9109573899451608</v>
       </c>
       <c r="B36" t="n">
-        <v>4.259026785305053</v>
+        <v>4.355415544314502</v>
       </c>
       <c r="C36" t="n">
-        <v>2.546081651066113</v>
+        <v>1.280118916719519</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6625088730352432</v>
+        <v>0.4224262189549376</v>
       </c>
       <c r="E36" t="n">
-        <v>37.95896231488795</v>
+        <v>24.20323950178714</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8790861293200006</v>
+        <v>0.9377502543553127</v>
       </c>
       <c r="B37" t="n">
-        <v>4.361076340766064</v>
+        <v>4.48134661277285</v>
       </c>
       <c r="C37" t="n">
-        <v>2.625693859397527</v>
+        <v>1.336723141384977</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7314331937628152</v>
+        <v>0.4959500715820613</v>
       </c>
       <c r="E37" t="n">
-        <v>41.90803499838388</v>
+        <v>28.41584595086318</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9042028758720007</v>
+        <v>0.9645431187654645</v>
       </c>
       <c r="B38" t="n">
-        <v>4.457400721955394</v>
+        <v>4.602779446056825</v>
       </c>
       <c r="C38" t="n">
-        <v>2.712145169824561</v>
+        <v>1.402425038265243</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8047105826973304</v>
+        <v>0.57411748604548</v>
       </c>
       <c r="E38" t="n">
-        <v>46.10652011807024</v>
+        <v>32.89450889506693</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9293196224240007</v>
+        <v>0.9913359831756162</v>
       </c>
       <c r="B39" t="n">
-        <v>4.547137349809787</v>
+        <v>4.718710963134751</v>
       </c>
       <c r="C39" t="n">
-        <v>2.805416564734059</v>
+        <v>1.477408740501458</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8827367593770997</v>
+        <v>0.6573505894653353</v>
       </c>
       <c r="E39" t="n">
-        <v>50.57709073336311</v>
+        <v>37.66341443680055</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9544363689760007</v>
+        <v>1.018128847585768</v>
       </c>
       <c r="B40" t="n">
-        <v>4.629330726017614</v>
+        <v>4.828007217157926</v>
       </c>
       <c r="C40" t="n">
-        <v>2.905398885149805</v>
+        <v>1.56177106093861</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9659727507057517</v>
+        <v>0.7461411744884274</v>
       </c>
       <c r="E40" t="n">
-        <v>55.34616174008239</v>
+        <v>42.75074021912123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9795531155280007</v>
+        <v>1.04492171199592</v>
       </c>
       <c r="B41" t="n">
-        <v>4.702927017983094</v>
+        <v>4.929392179669064</v>
       </c>
       <c r="C41" t="n">
-        <v>3.011868605250704</v>
+        <v>1.655492785366055</v>
       </c>
       <c r="D41" t="n">
-        <v>1.054959867245171</v>
+        <v>0.841066674995241</v>
       </c>
       <c r="E41" t="n">
-        <v>60.4447479488299</v>
+        <v>48.1895707663286</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.004669862080001</v>
+        <v>1.071714576406072</v>
       </c>
       <c r="B42" t="n">
-        <v>4.766770174329763</v>
+        <v>5.021437476042833</v>
       </c>
       <c r="C42" t="n">
-        <v>3.124457534007403</v>
+        <v>1.75840214193048</v>
       </c>
       <c r="D42" t="n">
-        <v>1.150339251753536</v>
+        <v>0.9428110191720493</v>
       </c>
       <c r="E42" t="n">
-        <v>65.90958413371469</v>
+        <v>54.01909227698617</v>
       </c>
     </row>
   </sheetData>

--- a/01_Initial_Glider_Design/results/nausicaa_rollin_timeseries.xlsx
+++ b/01_Initial_Glider_Design/results/nausicaa_rollin_timeseries.xlsx
@@ -471,690 +471,690 @@
         <v>2.5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5519833787224694</v>
+        <v>-0.5635264962161868</v>
       </c>
       <c r="E2" t="n">
-        <v>-31.62631796216882</v>
+        <v>-32.28768987698245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02679286441015179</v>
+        <v>0.02638492562814984</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1175626815244795</v>
+        <v>0.116217378282943</v>
       </c>
       <c r="C3" t="n">
-        <v>2.427600496094155</v>
+        <v>2.426565366991384</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5519833787224694</v>
+        <v>-0.5635264962161868</v>
       </c>
       <c r="E3" t="n">
-        <v>-31.62631796216882</v>
+        <v>-32.28768987698245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.05358572882030358</v>
+        <v>0.05276985125629968</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2351253630489589</v>
+        <v>0.2324347565658859</v>
       </c>
       <c r="C4" t="n">
-        <v>2.355200992188309</v>
+        <v>2.353130733982769</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5505363984591253</v>
+        <v>-0.5621414372011267</v>
       </c>
       <c r="E4" t="n">
-        <v>-31.54341210004048</v>
+        <v>-32.20833184104297</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.08037859323045538</v>
+        <v>0.07915477688444952</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3527926821165875</v>
+        <v>0.3487537346417531</v>
       </c>
       <c r="C5" t="n">
-        <v>2.28297167489626</v>
+        <v>2.279857139288249</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5476401069625383</v>
+        <v>-0.5593691641439307</v>
       </c>
       <c r="E5" t="n">
-        <v>-31.37746682104641</v>
+        <v>-32.04949229520781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1071714576406072</v>
+        <v>0.1055397025125994</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4706687045231495</v>
+        <v>0.4652753998854529</v>
       </c>
       <c r="C6" t="n">
-        <v>2.211083458931149</v>
+        <v>2.206906293721485</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5432898272486485</v>
+        <v>-0.5552053535574338</v>
       </c>
       <c r="E6" t="n">
-        <v>-31.12821415373915</v>
+        <v>-31.81092352190965</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1339643220507589</v>
+        <v>0.1319246281407492</v>
       </c>
       <c r="B7" t="n">
-        <v>0.588856344394693</v>
+        <v>0.5820998076693485</v>
       </c>
       <c r="C7" t="n">
-        <v>2.139708715256421</v>
+        <v>2.134441253281196</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5374785060239089</v>
+        <v>-0.5496434864500335</v>
       </c>
       <c r="E7" t="n">
-        <v>-30.79524997416677</v>
+        <v>-31.49225201044297</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1607571864609108</v>
+        <v>0.158309553768899</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7074567678158109</v>
+        <v>0.6993254473603198</v>
       </c>
       <c r="C8" t="n">
-        <v>2.069021999266992</v>
+        <v>2.062627092149053</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5301966677203981</v>
+        <v>-0.5426748073092807</v>
       </c>
       <c r="E8" t="n">
-        <v>-30.3780313722789</v>
+        <v>-31.09297610689698</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1875500508710625</v>
+        <v>0.1846944793970489</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8265687715341899</v>
+        <v>0.81704868647458</v>
       </c>
       <c r="C9" t="n">
-        <v>1.999200778830569</v>
+        <v>1.991631576005304</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5214323522212152</v>
+        <v>-0.5342882685620018</v>
       </c>
       <c r="E9" t="n">
-        <v>-29.87587308385463</v>
+        <v>-30.61246283195497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2143429152812143</v>
+        <v>0.2110794050251987</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9462881279635648</v>
+        <v>0.9353631853055511</v>
       </c>
       <c r="C10" t="n">
-        <v>1.930426161789286</v>
+        <v>1.921625835480351</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5111710353989433</v>
+        <v>-0.5244704597560446</v>
       </c>
       <c r="E10" t="n">
-        <v>-29.28794293769185</v>
+        <v>-30.04994382330725</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2411357796913661</v>
+        <v>0.2374643306533486</v>
       </c>
       <c r="B11" t="n">
-        <v>1.066706887296134</v>
+        <v>1.054359273986733</v>
       </c>
       <c r="C11" t="n">
-        <v>1.862883622202419</v>
+        <v>1.852785039300681</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4993955313314993</v>
+        <v>-0.5132055204874867</v>
       </c>
       <c r="E11" t="n">
-        <v>-28.61325625298818</v>
+        <v>-29.40451034674769</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2679286441015179</v>
+        <v>0.2638492562814984</v>
       </c>
       <c r="B12" t="n">
-        <v>1.187912627011252</v>
+        <v>1.174123283500811</v>
       </c>
       <c r="C12" t="n">
-        <v>1.796763724190174</v>
+        <v>1.78528906634538</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4860858747730183</v>
+        <v>-0.5004750358525043</v>
       </c>
       <c r="E12" t="n">
-        <v>-27.8506691054186</v>
+        <v>-28.67510730600706</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2947215085116697</v>
+        <v>0.2902341819096482</v>
       </c>
       <c r="B13" t="n">
-        <v>1.309987638422751</v>
+        <v>1.294736821592092</v>
       </c>
       <c r="C13" t="n">
-        <v>1.732262841700698</v>
+        <v>1.719323175392752</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4712191821346191</v>
+        <v>-0.4862579129285956</v>
       </c>
       <c r="E13" t="n">
-        <v>-26.99887036192012</v>
+        <v>-27.86052616564839</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.3215143729218215</v>
+        <v>0.3166191075377981</v>
       </c>
       <c r="B14" t="n">
-        <v>1.433008039133984</v>
+        <v>1.416275983874329</v>
       </c>
       <c r="C14" t="n">
-        <v>1.669583871847275</v>
+        <v>1.655078670788834</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4547694888616817</v>
+        <v>-0.4705302364778881</v>
       </c>
       <c r="E14" t="n">
-        <v>-26.05637236309606</v>
+        <v>-26.95939668347556</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3483072373319733</v>
+        <v>0.343004033165948</v>
       </c>
       <c r="B15" t="n">
-        <v>1.557042799357591</v>
+        <v>1.538810489641165</v>
       </c>
       <c r="C15" t="n">
-        <v>1.608936938624636</v>
+        <v>1.592753561590792</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4367075606694426</v>
+        <v>-0.4532651017067332</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.0215001078124</v>
+        <v>-25.97017732836382</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.375100101742125</v>
+        <v>0.3693889587940978</v>
       </c>
       <c r="B16" t="n">
-        <v>1.682152668994323</v>
+        <v>1.662402730971631</v>
       </c>
       <c r="C16" t="n">
-        <v>1.550540082780178</v>
+        <v>1.532553210902588</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.417000675603749</v>
+        <v>-0.4344324214997735</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.89237876619877</v>
+        <v>-24.89114423558546</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4018929661522769</v>
+        <v>0.3957738844222476</v>
       </c>
       <c r="B17" t="n">
-        <v>1.808388991139053</v>
+        <v>1.78710672266658</v>
       </c>
       <c r="C17" t="n">
-        <v>1.494619932347522</v>
+        <v>1.474690971096157</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3956123733121326</v>
+        <v>-0.4139987050597896</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.66691931393916</v>
+        <v>-23.7203785238073</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4286858305624286</v>
+        <v>0.4221588100503975</v>
       </c>
       <c r="B18" t="n">
-        <v>1.93579238627765</v>
+        <v>1.912966939340635</v>
       </c>
       <c r="C18" t="n">
-        <v>1.441412346796238</v>
+        <v>1.419388799359135</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3725021672214425</v>
+        <v>-0.3919268043104899</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.34280204126509</v>
+        <v>-22.45575176504079</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4554786949725804</v>
+        <v>0.4485437356785473</v>
       </c>
       <c r="B19" t="n">
-        <v>2.064391289840305</v>
+        <v>2.040017024613645</v>
       </c>
       <c r="C19" t="n">
-        <v>1.391163025850361</v>
+        <v>1.366877846480788</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3476252144966121</v>
+        <v>-0.3681756237376402</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.91745764298583</v>
+        <v>-21.09490935976339</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4822715593827323</v>
+        <v>0.4749286613066971</v>
       </c>
       <c r="B20" t="n">
-        <v>2.194200323968527</v>
+        <v>2.16827835578049</v>
       </c>
       <c r="C20" t="n">
-        <v>1.34412807170202</v>
+        <v>1.317399009920297</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3209319376686447</v>
+        <v>-0.3426997885291662</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.38804553936895</v>
+        <v>-19.63525152274704</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.509064423792884</v>
+        <v>0.501313586934847</v>
       </c>
       <c r="B21" t="n">
-        <v>2.325218482318278</v>
+        <v>2.297758445572029</v>
       </c>
       <c r="C21" t="n">
-        <v>1.300574490498192</v>
+        <v>1.271203439920067</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2923675906281415</v>
+        <v>-0.3154492648951779</v>
       </c>
       <c r="E21" t="n">
-        <v>-16.75142900940111</v>
+        <v>-18.07391152899801</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.5358572882030358</v>
+        <v>0.5276985125629968</v>
       </c>
       <c r="B22" t="n">
-        <v>2.45742710444505</v>
+        <v>2.428449160637006</v>
       </c>
       <c r="C22" t="n">
-        <v>1.260780615487341</v>
+        <v>1.228552984636728</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2618717602321279</v>
+        <v>-0.2863689252639304</v>
       </c>
       <c r="E22" t="n">
-        <v>-15.00414663496276</v>
+        <v>-16.4077308013205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5626501526131876</v>
+        <v>0.5540834381911467</v>
       </c>
       <c r="B23" t="n">
-        <v>2.590787613785866</v>
+        <v>2.560324734159684</v>
       </c>
       <c r="C23" t="n">
-        <v>1.225036429926653</v>
+        <v>1.189720556845822</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2293777930006249</v>
+        <v>-0.2553980496081627</v>
       </c>
       <c r="E23" t="n">
-        <v>-13.14237945296124</v>
+        <v>-14.63323033842055</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.5894430170233393</v>
+        <v>0.5804683638192965</v>
       </c>
       <c r="B24" t="n">
-        <v>2.725238990460995</v>
+        <v>2.693339547568394</v>
       </c>
       <c r="C24" t="n">
-        <v>1.193643762578983</v>
+        <v>1.154990400584764</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1948121342002995</v>
+        <v>-0.2224697523922488</v>
       </c>
       <c r="E24" t="n">
-        <v>-11.16191308761336</v>
+        <v>-12.74657788139631</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.6162358814334912</v>
+        <v>0.6068532894474463</v>
       </c>
       <c r="B25" t="n">
-        <v>2.860694947067272</v>
+        <v>2.827425653579025</v>
       </c>
       <c r="C25" t="n">
-        <v>1.166916322130689</v>
+        <v>1.124658230946286</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1580935639151607</v>
+        <v>-0.1875103224592058</v>
       </c>
       <c r="E25" t="n">
-        <v>-9.058093980520432</v>
+        <v>-10.74355009204963</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.643028745843643</v>
+        <v>0.6332382150755962</v>
       </c>
       <c r="B26" t="n">
-        <v>2.997040772343073</v>
+        <v>2.962490009856605</v>
       </c>
       <c r="C26" t="n">
-        <v>1.145179528832243</v>
+        <v>1.099031213886263</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1191323113441497</v>
+        <v>-0.1504384604875428</v>
       </c>
       <c r="E26" t="n">
-        <v>-6.825778643658277</v>
+        <v>-8.6194888623818</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.6698216102537947</v>
+        <v>0.6596231407037461</v>
       </c>
       <c r="B27" t="n">
-        <v>3.134129804094506</v>
+        <v>3.098411389384343</v>
       </c>
       <c r="C27" t="n">
-        <v>1.12877009171535</v>
+        <v>1.078427745067921</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.07782902435214697</v>
+        <v>-0.1111643952968098</v>
       </c>
       <c r="E27" t="n">
-        <v>-4.459274618998927</v>
+        <v>-6.36925068263114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.6966144746639465</v>
+        <v>0.6860080663318959</v>
       </c>
       <c r="B28" t="n">
-        <v>3.27177948916313</v>
+        <v>3.235036930243101</v>
       </c>
       <c r="C28" t="n">
-        <v>1.118035267378297</v>
+        <v>1.063176977050422</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.03407356598126147</v>
+        <v>-0.06958885607717469</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.95227152368682</v>
+        <v>-3.98714775436542</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.7234073390740984</v>
+        <v>0.7123929919600457</v>
       </c>
       <c r="B29" t="n">
-        <v>3.409766984624733</v>
+        <v>3.372178284001732</v>
       </c>
       <c r="C29" t="n">
-        <v>1.113331720921328</v>
+        <v>1.053618032060397</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01225639713588913</v>
+        <v>-0.02560187230936282</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7022398279226775</v>
+        <v>-1.46687923095934</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.7502002034842501</v>
+        <v>0.7387779175881956</v>
       </c>
       <c r="B30" t="n">
-        <v>3.54782425106044</v>
+        <v>3.509607318431962</v>
       </c>
       <c r="C30" t="n">
-        <v>1.115023890339259</v>
+        <v>1.050098822540203</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06129705818851452</v>
+        <v>0.02091863361235319</v>
       </c>
       <c r="E30" t="n">
-        <v>3.512062730769705</v>
+        <v>1.198549419168341</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.7769930678944019</v>
+        <v>0.7651628432163454</v>
       </c>
       <c r="B31" t="n">
-        <v>3.685632585990573</v>
+        <v>3.647051327006321</v>
       </c>
       <c r="C31" t="n">
-        <v>1.123481731483603</v>
+        <v>1.052974382848091</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1132004403527653</v>
+        <v>0.0701085046985388</v>
       </c>
       <c r="E31" t="n">
-        <v>6.485907471235867</v>
+        <v>4.016921427199375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8037859323045538</v>
+        <v>0.7915477688444952</v>
       </c>
       <c r="B32" t="n">
-        <v>3.822816543959968</v>
+        <v>3.784187694956132</v>
       </c>
       <c r="C32" t="n">
-        <v>1.139077690219444</v>
+        <v>1.06260459185969</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1681367432299248</v>
+        <v>0.1221193134558592</v>
       </c>
       <c r="E32" t="n">
-        <v>9.633525768149509</v>
+        <v>6.996921258055896</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8305787967147055</v>
+        <v>0.817932694472645</v>
       </c>
       <c r="B33" t="n">
-        <v>3.958937190159094</v>
+        <v>3.920637970091656</v>
       </c>
       <c r="C33" t="n">
-        <v>1.162182709833614</v>
+        <v>1.079351136443969</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2262971542681229</v>
+        <v>0.1771207011639635</v>
       </c>
       <c r="E33" t="n">
-        <v>12.96587185538434</v>
+        <v>10.148268641093</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8573716611248573</v>
+        <v>0.8443176201007949</v>
       </c>
       <c r="B34" t="n">
-        <v>4.093484638154405</v>
+        <v>4.055961286937896</v>
       </c>
       <c r="C34" t="n">
-        <v>1.193161032754456</v>
+        <v>1.103573528105533</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2878972393620664</v>
+        <v>0.2353031809311819</v>
       </c>
       <c r="E34" t="n">
-        <v>16.49529674891404</v>
+        <v>13.48187917335991</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8841645255350091</v>
+        <v>0.8707025457289448</v>
       </c>
       <c r="B35" t="n">
-        <v>4.225869831259187</v>
+        <v>4.189647096271455</v>
       </c>
       <c r="C35" t="n">
-        <v>1.232363493131944</v>
+        <v>1.135623937196612</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3531810610257711</v>
+        <v>0.2968815186016825</v>
       </c>
       <c r="E35" t="n">
-        <v>20.23578420072905</v>
+        <v>17.01005803131105</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9109573899451608</v>
+        <v>0.8970874713570947</v>
       </c>
       <c r="B36" t="n">
-        <v>4.355415544314502</v>
+        <v>4.321107160769394</v>
       </c>
       <c r="C36" t="n">
-        <v>1.280118916719519</v>
+        <v>1.175840547972166</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4224262189549376</v>
+        <v>0.362098839792845</v>
       </c>
       <c r="E36" t="n">
-        <v>24.20323950178714</v>
+        <v>20.74673528671377</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9377502543553127</v>
+        <v>0.9234723969852444</v>
       </c>
       <c r="B37" t="n">
-        <v>4.48134661277285</v>
+        <v>4.449666794120136</v>
       </c>
       <c r="C37" t="n">
-        <v>1.336723141384977</v>
+        <v>1.224539059374445</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4959500715820613</v>
+        <v>0.4312316577879921</v>
       </c>
       <c r="E37" t="n">
-        <v>28.41584595086318</v>
+        <v>24.70775398368176</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9645431187654645</v>
+        <v>0.9498573226133943</v>
       </c>
       <c r="B38" t="n">
-        <v>4.602779446056825</v>
+        <v>4.57455535006764</v>
       </c>
       <c r="C38" t="n">
-        <v>1.402425038265243</v>
+        <v>1.282001855455242</v>
       </c>
       <c r="D38" t="n">
-        <v>0.57411748604548</v>
+        <v>0.504596080855312</v>
       </c>
       <c r="E38" t="n">
-        <v>32.89450889506693</v>
+        <v>28.91122579185142</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9913359831756162</v>
+        <v>0.9762422482415442</v>
       </c>
       <c r="B39" t="n">
-        <v>4.718710963134751</v>
+        <v>4.694896016334018</v>
       </c>
       <c r="C39" t="n">
-        <v>1.477408740501458</v>
+        <v>1.348464238670421</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6573505894653353</v>
+        <v>0.5825555465024905</v>
       </c>
       <c r="E39" t="n">
-        <v>37.66341443680055</v>
+        <v>33.37797414652987</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.018128847585768</v>
+        <v>1.002627173869694</v>
       </c>
       <c r="B40" t="n">
-        <v>4.828007217157926</v>
+        <v>4.809695046827148</v>
       </c>
       <c r="C40" t="n">
-        <v>1.56177106093861</v>
+        <v>1.424096949437092</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7461411744884274</v>
+        <v>0.6655305558771523</v>
       </c>
       <c r="E40" t="n">
-        <v>42.75074021912123</v>
+        <v>38.13209198875643</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.04492171199592</v>
+        <v>1.029012099497844</v>
       </c>
       <c r="B41" t="n">
-        <v>4.929392179669064</v>
+        <v>4.917830690585833</v>
       </c>
       <c r="C41" t="n">
-        <v>1.655492785366055</v>
+        <v>1.508983973704486</v>
       </c>
       <c r="D41" t="n">
-        <v>0.841066674995241</v>
+        <v>0.7540110620123706</v>
       </c>
       <c r="E41" t="n">
-        <v>48.1895707663286</v>
+        <v>43.20165155948582</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.071714576406072</v>
+        <v>1.055397025125994</v>
       </c>
       <c r="B42" t="n">
-        <v>5.021437476042833</v>
+        <v>5.018042273708278</v>
       </c>
       <c r="C42" t="n">
-        <v>1.75840214193048</v>
+        <v>1.603094350115236</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9428110191720493</v>
+        <v>0.8485724293084896</v>
       </c>
       <c r="E42" t="n">
-        <v>54.01909227698617</v>
+        <v>48.61961881053986</v>
       </c>
     </row>
   </sheetData>

--- a/01_Initial_Glider_Design/results/nausicaa_rollin_timeseries.xlsx
+++ b/01_Initial_Glider_Design/results/nausicaa_rollin_timeseries.xlsx
@@ -465,696 +465,696 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.221974545399842e-150</v>
       </c>
       <c r="C2" t="n">
         <v>2.5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5635264962161868</v>
+        <v>-0.5516898103439049</v>
       </c>
       <c r="E2" t="n">
-        <v>-32.28768987698245</v>
+        <v>-31.60949773307858</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02638492562814984</v>
+        <v>0.0268805176360391</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116217378282943</v>
+        <v>0.1176918824304137</v>
       </c>
       <c r="C3" t="n">
-        <v>2.426565366991384</v>
+        <v>2.427568574858869</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5635264962161868</v>
+        <v>-0.5516898103439049</v>
       </c>
       <c r="E3" t="n">
-        <v>-32.28768987698245</v>
+        <v>-31.60949773307858</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.05276985125629968</v>
+        <v>0.05376103527207819</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2324347565658859</v>
+        <v>0.2353837648608275</v>
       </c>
       <c r="C4" t="n">
-        <v>2.353130733982769</v>
+        <v>2.355137149717738</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5621414372011267</v>
+        <v>-0.5502346828656669</v>
       </c>
       <c r="E4" t="n">
-        <v>-32.20833184104297</v>
+        <v>-31.52612506992203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.07915477688444952</v>
+        <v>0.08064155290811728</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3487537346417531</v>
+        <v>0.3531809196109203</v>
       </c>
       <c r="C5" t="n">
-        <v>2.279857139288249</v>
+        <v>2.282877057891251</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5593691641439307</v>
+        <v>-0.5473220838147018</v>
       </c>
       <c r="E5" t="n">
-        <v>-32.04949229520781</v>
+        <v>-31.35924543688792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1055397025125994</v>
+        <v>0.1075220705441564</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4652753998854529</v>
+        <v>0.4711880390883038</v>
       </c>
       <c r="C6" t="n">
-        <v>2.206906293721485</v>
+        <v>2.210960367960192</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5552053535574338</v>
+        <v>-0.5429473098730622</v>
       </c>
       <c r="E6" t="n">
-        <v>-31.81092352190965</v>
+        <v>-31.10858935370815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1319246281407492</v>
+        <v>0.1344025881801955</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5820998076693485</v>
+        <v>0.5895086475767003</v>
       </c>
       <c r="C7" t="n">
-        <v>2.134441253281196</v>
+        <v>2.139560619046592</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5496434864500335</v>
+        <v>-0.5371032680334358</v>
       </c>
       <c r="E7" t="n">
-        <v>-31.49225201044297</v>
+        <v>-30.77375042099969</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.158309553768899</v>
+        <v>0.1612831058162346</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6993254473603198</v>
+        <v>0.7082444963242028</v>
       </c>
       <c r="C8" t="n">
-        <v>2.062627092149053</v>
+        <v>2.068853556031644</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5426748073092807</v>
+        <v>-0.5297804293754504</v>
       </c>
       <c r="E8" t="n">
-        <v>-31.09297610689698</v>
+        <v>-30.35418267184189</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1846944793970489</v>
+        <v>0.1881636234522737</v>
       </c>
       <c r="B9" t="n">
-        <v>0.81704868647458</v>
+        <v>0.8274949333292863</v>
       </c>
       <c r="C9" t="n">
-        <v>1.991631576005304</v>
+        <v>1.999017864497256</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5342882685620018</v>
+        <v>-0.5209667664404288</v>
       </c>
       <c r="E9" t="n">
-        <v>-30.61246283195497</v>
+        <v>-29.84919698361427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2110794050251987</v>
+        <v>0.2150441410883128</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9353631853055511</v>
+        <v>0.9473562389155665</v>
       </c>
       <c r="C10" t="n">
-        <v>1.921625835480351</v>
+        <v>1.930235904935595</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5244704597560446</v>
+        <v>-0.5106476733224368</v>
       </c>
       <c r="E10" t="n">
-        <v>-30.04994382330725</v>
+        <v>-29.25795649955083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2374643306533486</v>
+        <v>0.2419246587243519</v>
       </c>
       <c r="B11" t="n">
-        <v>1.054359273986733</v>
+        <v>1.067920917771034</v>
       </c>
       <c r="C11" t="n">
-        <v>1.852785039300681</v>
+        <v>1.862694445442425</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5132055204874867</v>
+        <v>-0.498805867333556</v>
       </c>
       <c r="E11" t="n">
-        <v>-29.40451034674769</v>
+        <v>-28.57947099457521</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2638492562814984</v>
+        <v>0.268805176360391</v>
       </c>
       <c r="B12" t="n">
-        <v>1.174123283500811</v>
+        <v>1.189276937598055</v>
       </c>
       <c r="C12" t="n">
-        <v>1.78528906634538</v>
+        <v>1.796585391677201</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5004750358525043</v>
+        <v>-0.4854212708130108</v>
       </c>
       <c r="E12" t="n">
-        <v>-28.67510730600706</v>
+        <v>-27.81259010346249</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2902341819096482</v>
+        <v>0.2956856939964301</v>
       </c>
       <c r="B13" t="n">
-        <v>1.294736821592092</v>
+        <v>1.311506903869867</v>
       </c>
       <c r="C13" t="n">
-        <v>1.719323175392752</v>
+        <v>1.73210651231984</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4862579129285956</v>
+        <v>-0.4704708713251782</v>
       </c>
       <c r="E13" t="n">
-        <v>-27.86052616564839</v>
+        <v>-26.95599531077513</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.3166191075377981</v>
+        <v>0.3225662116324691</v>
       </c>
       <c r="B14" t="n">
-        <v>1.416275983874329</v>
+        <v>1.434687159409146</v>
       </c>
       <c r="C14" t="n">
-        <v>1.655078670788834</v>
+        <v>1.669462157560072</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4705302364778881</v>
+        <v>-0.4539285581212075</v>
       </c>
       <c r="E14" t="n">
-        <v>-26.95939668347556</v>
+        <v>-26.00819058080408</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.343004033165948</v>
+        <v>0.3494467292685082</v>
       </c>
       <c r="B15" t="n">
-        <v>1.538810489641165</v>
+        <v>1.558886796584455</v>
       </c>
       <c r="C15" t="n">
-        <v>1.592753561590792</v>
+        <v>1.608863967294098</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4532651017067332</v>
+        <v>-0.4357649323117637</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.97017732836382</v>
+        <v>-24.96749148126805</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3693889587940978</v>
+        <v>0.3763272469045473</v>
       </c>
       <c r="B16" t="n">
-        <v>1.662402730971631</v>
+        <v>1.684166568849727</v>
       </c>
       <c r="C16" t="n">
-        <v>1.532553210902588</v>
+        <v>1.550531564642132</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4344324214997735</v>
+        <v>-0.4159470877006611</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.89114423558546</v>
+        <v>-23.8320126260058</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3957738844222476</v>
+        <v>0.4032077645405864</v>
       </c>
       <c r="B17" t="n">
-        <v>1.78710672266658</v>
+        <v>1.810577687117319</v>
       </c>
       <c r="C17" t="n">
-        <v>1.474690971096157</v>
+        <v>1.494693229098112</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4139987050597896</v>
+        <v>-0.3944383586441888</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.7203785238073</v>
+        <v>-22.59965322837953</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4221588100503975</v>
+        <v>0.4300882821766255</v>
       </c>
       <c r="B18" t="n">
-        <v>1.912966939340635</v>
+        <v>1.938160485042717</v>
       </c>
       <c r="C18" t="n">
-        <v>1.419388799359135</v>
+        <v>1.441586542028435</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3919268043104899</v>
+        <v>-0.3711980306081397</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.45575176504079</v>
+        <v>-21.26808051741436</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4485437356785473</v>
+        <v>0.4569687998126646</v>
       </c>
       <c r="B19" t="n">
-        <v>2.040017024613645</v>
+        <v>2.066942935693423</v>
       </c>
       <c r="C19" t="n">
-        <v>1.366877846480788</v>
+        <v>1.391458995286271</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3681756237376402</v>
+        <v>-0.346181008268255</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.09490935976339</v>
+        <v>-19.83471072135447</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4749286613066971</v>
+        <v>0.4838493174487037</v>
       </c>
       <c r="B20" t="n">
-        <v>2.16827835578049</v>
+        <v>2.196939000260382</v>
       </c>
       <c r="C20" t="n">
-        <v>1.317399009920297</v>
+        <v>1.344568551322787</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3426997885291662</v>
+        <v>-0.3193374350077572</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.63525152274704</v>
+        <v>-18.29668726647771</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.501313586934847</v>
+        <v>0.5107298350847428</v>
       </c>
       <c r="B21" t="n">
-        <v>2.297758445572029</v>
+        <v>2.32814678743215</v>
       </c>
       <c r="C21" t="n">
-        <v>1.271203439920067</v>
+        <v>1.301184140257547</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3154492648951779</v>
+        <v>-0.2906122564671698</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.07391152899801</v>
+        <v>-16.65085577034229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.5276985125629968</v>
+        <v>0.5376103527207819</v>
       </c>
       <c r="B22" t="n">
-        <v>2.428449160637006</v>
+        <v>2.460546499776047</v>
       </c>
       <c r="C22" t="n">
-        <v>1.228552984636728</v>
+        <v>1.261586075794204</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2863689252639304</v>
+        <v>-0.2599447193448999</v>
       </c>
       <c r="E22" t="n">
-        <v>-16.4077308013205</v>
+        <v>-14.89373532517545</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5540834381911467</v>
+        <v>0.564490870356821</v>
       </c>
       <c r="B23" t="n">
-        <v>2.560324734159684</v>
+        <v>2.594098140946177</v>
       </c>
       <c r="C23" t="n">
-        <v>1.189720556845822</v>
+        <v>1.226066367479603</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2553980496081627</v>
+        <v>-0.2272677948657757</v>
       </c>
       <c r="E23" t="n">
-        <v>-14.63323033842055</v>
+        <v>-13.0214854650539</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.5804683638192965</v>
+        <v>0.5913713879928602</v>
       </c>
       <c r="B24" t="n">
-        <v>2.693339547568394</v>
+        <v>2.728738954761222</v>
       </c>
       <c r="C24" t="n">
-        <v>1.154990400584764</v>
+        <v>1.194928901410379</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2224697523922488</v>
+        <v>-0.1925075141433495</v>
       </c>
       <c r="E24" t="n">
-        <v>-12.74657788139631</v>
+        <v>-11.02986808496893</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.6068532894474463</v>
+        <v>0.6182519056288992</v>
       </c>
       <c r="B25" t="n">
-        <v>2.827425653579025</v>
+        <v>2.864380564171302</v>
       </c>
       <c r="C25" t="n">
-        <v>1.124658230946286</v>
+        <v>1.168489454845959</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1875103224592058</v>
+        <v>-0.1555821999492188</v>
       </c>
       <c r="E25" t="n">
-        <v>-10.74355009204963</v>
+        <v>-8.914203424450728</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.6332382150755962</v>
+        <v>0.6451324232649382</v>
       </c>
       <c r="B26" t="n">
-        <v>2.962490009856605</v>
+        <v>3.000905774885905</v>
       </c>
       <c r="C26" t="n">
-        <v>1.099031213886263</v>
+        <v>1.147075501980531</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1504384604875428</v>
+        <v>-0.1164015760235862</v>
       </c>
       <c r="E26" t="n">
-        <v>-8.6194888623818</v>
+        <v>-6.669319034822683</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.6596231407037461</v>
+        <v>0.6720129409009774</v>
       </c>
       <c r="B27" t="n">
-        <v>3.098411389384343</v>
+        <v>3.13816500501282</v>
       </c>
       <c r="C27" t="n">
-        <v>1.078427745067921</v>
+        <v>1.131025757965246</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1111643952968098</v>
+        <v>-0.07486573082422021</v>
       </c>
       <c r="E27" t="n">
-        <v>-6.36925068263114</v>
+        <v>-4.289490406390292</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.6860080663318959</v>
+        <v>0.6988934585370165</v>
       </c>
       <c r="B28" t="n">
-        <v>3.235036930243101</v>
+        <v>3.27597229855037</v>
       </c>
       <c r="C28" t="n">
-        <v>1.063176977050422</v>
+        <v>1.120689395653238</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.06958885607717469</v>
+        <v>-0.03086390726137847</v>
       </c>
       <c r="E28" t="n">
-        <v>-3.98714775436542</v>
+        <v>-1.768371625360161</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.7123929919600457</v>
+        <v>0.7257739761730556</v>
       </c>
       <c r="B29" t="n">
-        <v>3.372178284001732</v>
+        <v>3.414100877131886</v>
       </c>
       <c r="C29" t="n">
-        <v>1.053618032060397</v>
+        <v>1.116424853820902</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.02560187230936282</v>
+        <v>0.01572691683700274</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.46687923095934</v>
+        <v>0.9010859595134911</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.7387779175881956</v>
+        <v>0.7526544938090947</v>
       </c>
       <c r="B30" t="n">
-        <v>3.509607318431962</v>
+        <v>3.552278181283767</v>
       </c>
       <c r="C30" t="n">
-        <v>1.050098822540203</v>
+        <v>1.118598135971923</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02091863361235319</v>
+        <v>0.06504370150367365</v>
       </c>
       <c r="E30" t="n">
-        <v>1.198549419168341</v>
+        <v>3.726729580069227</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.7651628432163454</v>
+        <v>0.7795350114451338</v>
       </c>
       <c r="B31" t="n">
-        <v>3.647051327006321</v>
+        <v>3.690180350005562</v>
       </c>
       <c r="C31" t="n">
-        <v>1.052974382848091</v>
+        <v>1.127580474187301</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0701085046985388</v>
+        <v>0.1172393258904294</v>
       </c>
       <c r="E31" t="n">
-        <v>4.016921427199375</v>
+        <v>6.717318566480448</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7915477688444952</v>
+        <v>0.8064155290811729</v>
       </c>
       <c r="B32" t="n">
-        <v>3.784187694956132</v>
+        <v>3.827426086297172</v>
       </c>
       <c r="C32" t="n">
-        <v>1.06260459185969</v>
+        <v>1.143745201458843</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1221193134558592</v>
+        <v>0.1724849479182087</v>
       </c>
       <c r="E32" t="n">
-        <v>6.996921258055896</v>
+        <v>9.882659545247174</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.817932694472645</v>
+        <v>0.833296046717212</v>
       </c>
       <c r="B33" t="n">
-        <v>3.920637970091656</v>
+        <v>3.963569857239248</v>
       </c>
       <c r="C33" t="n">
-        <v>1.079351136443969</v>
+        <v>1.167463636728925</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1771207011639635</v>
+        <v>0.2309728315288771</v>
       </c>
       <c r="E33" t="n">
-        <v>10.148268641093</v>
+        <v>13.23376842879085</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8443176201007949</v>
+        <v>0.8601765643532511</v>
       </c>
       <c r="B34" t="n">
-        <v>4.055961286937896</v>
+        <v>4.098094381738711</v>
       </c>
       <c r="C34" t="n">
-        <v>1.103573528105533</v>
+        <v>1.199099737092002</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2353031809311819</v>
+        <v>0.2929197563761843</v>
       </c>
       <c r="E34" t="n">
-        <v>13.48187917335991</v>
+        <v>16.78306577635565</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8707025457289448</v>
+        <v>0.8870570819892901</v>
       </c>
       <c r="B35" t="n">
-        <v>4.189647096271455</v>
+        <v>4.230402369148874</v>
       </c>
       <c r="C35" t="n">
-        <v>1.135623937196612</v>
+        <v>1.239003208187407</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2968815186016825</v>
+        <v>0.3585711591864477</v>
       </c>
       <c r="E35" t="n">
-        <v>17.01005803131105</v>
+        <v>20.54461407649705</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8970874713570947</v>
+        <v>0.9139375996253293</v>
       </c>
       <c r="B36" t="n">
-        <v>4.321107160769394</v>
+        <v>4.359807490803462</v>
       </c>
       <c r="C36" t="n">
-        <v>1.175840547972166</v>
+        <v>1.287500682632485</v>
       </c>
       <c r="D36" t="n">
-        <v>0.362098839792845</v>
+        <v>0.4282062027025618</v>
       </c>
       <c r="E36" t="n">
-        <v>20.74673528671377</v>
+        <v>24.53440817618021</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9234723969852444</v>
+        <v>0.9408181172613683</v>
       </c>
       <c r="B37" t="n">
-        <v>4.449666794120136</v>
+        <v>4.485524598854391</v>
       </c>
       <c r="C37" t="n">
-        <v>1.224539059374445</v>
+        <v>1.344884471992378</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4312316577879921</v>
+        <v>0.502144032270546</v>
       </c>
       <c r="E37" t="n">
-        <v>24.70775398368176</v>
+        <v>28.7707337567833</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9498573226133943</v>
+        <v>0.9676986348974075</v>
       </c>
       <c r="B38" t="n">
-        <v>4.57455535006764</v>
+        <v>4.606659260010592</v>
       </c>
       <c r="C38" t="n">
-        <v>1.282001855455242</v>
+        <v>1.41139826307785</v>
       </c>
       <c r="D38" t="n">
-        <v>0.504596080855312</v>
+        <v>0.5807515694460702</v>
       </c>
       <c r="E38" t="n">
-        <v>28.91122579185142</v>
+        <v>33.27461387485855</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9762422482415442</v>
+        <v>0.9945791525334465</v>
       </c>
       <c r="B39" t="n">
-        <v>4.694896016334018</v>
+        <v>4.722196757155428</v>
       </c>
       <c r="C39" t="n">
-        <v>1.348464238670421</v>
+        <v>1.4872189547886</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5825555465024905</v>
+        <v>0.6644533181766762</v>
       </c>
       <c r="E39" t="n">
-        <v>33.37797414652987</v>
+        <v>38.07037081498677</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.002627173869694</v>
+        <v>1.021459670169486</v>
       </c>
       <c r="B40" t="n">
-        <v>4.809695046827148</v>
+        <v>4.830990846973828</v>
       </c>
       <c r="C40" t="n">
-        <v>1.424096949437092</v>
+        <v>1.572433604694444</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6655305558771523</v>
+        <v>0.7537438401983456</v>
       </c>
       <c r="E40" t="n">
-        <v>38.13209198875643</v>
+        <v>43.18634087734836</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.029012099497844</v>
+        <v>1.048340187805525</v>
       </c>
       <c r="B41" t="n">
-        <v>4.917830690585833</v>
+        <v>4.931752774296374</v>
       </c>
       <c r="C41" t="n">
-        <v>1.508983973704486</v>
+        <v>1.667010158555513</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7540110620123706</v>
+        <v>0.8492038206968823</v>
       </c>
       <c r="E41" t="n">
-        <v>43.20165155948582</v>
+        <v>48.65579487231566</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.055397025125994</v>
+        <v>1.075220705441564</v>
       </c>
       <c r="B42" t="n">
-        <v>5.018042273708278</v>
+        <v>5.02304137780452</v>
       </c>
       <c r="C42" t="n">
-        <v>1.603094350115236</v>
+        <v>1.77076024967606</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8485724293084896</v>
+        <v>0.9515210387976034</v>
       </c>
       <c r="E42" t="n">
-        <v>48.61961881053986</v>
+        <v>54.51813964100653</v>
       </c>
     </row>
   </sheetData>

--- a/01_Initial_Glider_Design/results/nausicaa_rollin_timeseries.xlsx
+++ b/01_Initial_Glider_Design/results/nausicaa_rollin_timeseries.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>psi (rad)</t>
+          <t>ψ (rad)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>psi (deg)</t>
+          <t>ψ (deg)</t>
         </is>
       </c>
     </row>
@@ -465,696 +465,696 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.221974545399842e-150</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>2.5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5516898103439049</v>
+        <v>-0.8106398939946861</v>
       </c>
       <c r="E2" t="n">
-        <v>-31.60949773307858</v>
+        <v>-46.44624463082796</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0268805176360391</v>
+        <v>0.0362158009982007</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1176918824304137</v>
+        <v>0.0909546412732028</v>
       </c>
       <c r="C3" t="n">
-        <v>2.427568574858869</v>
+        <v>2.404333723078434</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5516898103439049</v>
+        <v>-0.8106398939946861</v>
       </c>
       <c r="E3" t="n">
-        <v>-31.60949773307858</v>
+        <v>-46.44624463082796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.05376103527207819</v>
+        <v>0.07243160199640139</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2353837648608275</v>
+        <v>0.1819092825464056</v>
       </c>
       <c r="C4" t="n">
-        <v>2.355137149717738</v>
+        <v>2.308667446156868</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5502346828656669</v>
+        <v>-0.8094300737272562</v>
       </c>
       <c r="E4" t="n">
-        <v>-31.52612506992203</v>
+        <v>-46.37692703553484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.08064155290811728</v>
+        <v>0.1086474029946021</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3531809196109203</v>
+        <v>0.2729795962285458</v>
       </c>
       <c r="C5" t="n">
-        <v>2.282877057891251</v>
+        <v>2.213111277988574</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5473220838147018</v>
+        <v>-0.8070100603747469</v>
       </c>
       <c r="E5" t="n">
-        <v>-31.35924543688792</v>
+        <v>-46.23827048407075</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1075220705441564</v>
+        <v>0.1448632039928028</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4711880390883038</v>
+        <v>0.3642808902129477</v>
       </c>
       <c r="C6" t="n">
-        <v>2.210960367960192</v>
+        <v>2.117775780790811</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5429473098730622</v>
+        <v>-0.8033791078421669</v>
       </c>
       <c r="E6" t="n">
-        <v>-31.10858935370815</v>
+        <v>-46.03023222834158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1344025881801955</v>
+        <v>0.1810790049910035</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5895086475767003</v>
+        <v>0.4559277402526472</v>
       </c>
       <c r="C7" t="n">
-        <v>2.139560619046592</v>
+        <v>2.022772421971391</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5371032680334358</v>
+        <v>-0.798536095836598</v>
       </c>
       <c r="E7" t="n">
-        <v>-30.77375042099969</v>
+        <v>-45.7527480802913</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1612831058162346</v>
+        <v>0.2172948059892042</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7082444963242028</v>
+        <v>0.5480336161255041</v>
       </c>
       <c r="C8" t="n">
-        <v>2.068853556031644</v>
+        <v>1.928214022350496</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5297804293754504</v>
+        <v>-0.7924795284832962</v>
       </c>
       <c r="E8" t="n">
-        <v>-30.35418267184189</v>
+        <v>-45.40573233261038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1881636234522737</v>
+        <v>0.2535106069874049</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8274949333292863</v>
+        <v>0.6407104985041194</v>
       </c>
       <c r="C9" t="n">
-        <v>1.999017864497256</v>
+        <v>1.834215199050675</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5209667664404288</v>
+        <v>-0.7852075324748449</v>
       </c>
       <c r="E9" t="n">
-        <v>-29.84919698361427</v>
+        <v>-44.98907765269014</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2150441410883128</v>
+        <v>0.2897264079856056</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9473562389155665</v>
+        <v>0.7340684834707161</v>
       </c>
       <c r="C10" t="n">
-        <v>1.930235904935595</v>
+        <v>1.74089280113813</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5106476733224368</v>
+        <v>-0.7767178547484879</v>
       </c>
       <c r="E10" t="n">
-        <v>-29.25795649955083</v>
+        <v>-44.50265494954366</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2419246587243519</v>
+        <v>0.3259422089838063</v>
       </c>
       <c r="B11" t="n">
-        <v>1.067920917771034</v>
+        <v>0.8282153716522893</v>
       </c>
       <c r="C11" t="n">
-        <v>1.862694445442425</v>
+        <v>1.648366335978712</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.498805867333556</v>
+        <v>-0.7670078596855029</v>
       </c>
       <c r="E11" t="n">
-        <v>-28.57947099457521</v>
+        <v>-43.94631321334176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.268805176360391</v>
+        <v>0.362158009982007</v>
       </c>
       <c r="B12" t="n">
-        <v>1.189276937598055</v>
+        <v>0.9232562389979436</v>
       </c>
       <c r="C12" t="n">
-        <v>1.796585391677201</v>
+        <v>1.556758384122137</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4854212708130108</v>
+        <v>-0.7560745258251982</v>
       </c>
       <c r="E12" t="n">
-        <v>-27.81259010346249</v>
+        <v>-43.31987932713882</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2956856939964301</v>
+        <v>0.3983738109802076</v>
       </c>
       <c r="B13" t="n">
-        <v>1.311506903869867</v>
+        <v>1.019292986280172</v>
       </c>
       <c r="C13" t="n">
-        <v>1.73210651231984</v>
+        <v>1.466195000348008</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4704708713251782</v>
+        <v>-0.7439144420847872</v>
       </c>
       <c r="E13" t="n">
-        <v>-26.95599531077513</v>
+        <v>-42.62315785028762</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.3225662116324691</v>
+        <v>0.4345896119784083</v>
       </c>
       <c r="B14" t="n">
-        <v>1.434687159409146</v>
+        <v>1.116423864477102</v>
       </c>
       <c r="C14" t="n">
-        <v>1.669462157560072</v>
+        <v>1.376806098297117</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4539285581212075</v>
+        <v>-0.7305238034750351</v>
       </c>
       <c r="E14" t="n">
-        <v>-26.00819058080408</v>
+        <v>-41.85593077296389</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3494467292685082</v>
+        <v>0.4708054129766091</v>
       </c>
       <c r="B15" t="n">
-        <v>1.558886796584455</v>
+        <v>1.214742973285989</v>
       </c>
       <c r="C15" t="n">
-        <v>1.608863967294098</v>
+        <v>1.288725815871383</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4357649323117637</v>
+        <v>-0.7158984063001664</v>
       </c>
       <c r="E15" t="n">
-        <v>-24.96749148126805</v>
+        <v>-41.01795724114136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3763272469045473</v>
+        <v>0.5070212139748097</v>
       </c>
       <c r="B16" t="n">
-        <v>1.684166568849727</v>
+        <v>1.31433973013249</v>
       </c>
       <c r="C16" t="n">
-        <v>1.550531564642132</v>
+        <v>1.202092858315786</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4159470877006611</v>
+        <v>-0.7000336428290562</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.8320126260058</v>
+        <v>-40.10897325127343</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4032077645405864</v>
+        <v>0.5432370149730105</v>
       </c>
       <c r="B17" t="n">
-        <v>1.810577687117319</v>
+        <v>1.415298307178871</v>
       </c>
       <c r="C17" t="n">
-        <v>1.494693229098112</v>
+        <v>1.117050815596078</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3944383586441888</v>
+        <v>-0.6829244954232082</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.59965322837953</v>
+        <v>-39.12869131385114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4300882821766255</v>
+        <v>0.5794528159712111</v>
       </c>
       <c r="B18" t="n">
-        <v>1.938160485042717</v>
+        <v>1.517697034001182</v>
       </c>
       <c r="C18" t="n">
-        <v>1.441586542028435</v>
+        <v>1.033748450357507</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3711980306081397</v>
+        <v>-0.6645655301054324</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.26808051741436</v>
+        <v>-38.07680008491553</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4569687998126646</v>
+        <v>0.6156686169694118</v>
       </c>
       <c r="B19" t="n">
-        <v>2.066942935693423</v>
+        <v>1.621607763804822</v>
       </c>
       <c r="C19" t="n">
-        <v>1.391458995286271</v>
+        <v>0.9523399523929471</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.346181008268255</v>
+        <v>-0.6449508895514652</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.83471072135447</v>
+        <v>-36.95296396450706</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4838493174487037</v>
+        <v>0.6518844179676125</v>
       </c>
       <c r="B20" t="n">
-        <v>2.196939000260382</v>
+        <v>1.727095201284628</v>
       </c>
       <c r="C20" t="n">
-        <v>1.344568551322787</v>
+        <v>0.8729851551648348</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3193374350077572</v>
+        <v>-0.6240742854850243</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.29668726647771</v>
+        <v>-35.75682266093435</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5107298350847428</v>
+        <v>0.6881002189658132</v>
       </c>
       <c r="B21" t="n">
-        <v>2.32814678743215</v>
+        <v>1.834216190514862</v>
       </c>
       <c r="C21" t="n">
-        <v>1.301184140257547</v>
+        <v>0.7958497095155953</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2906122564671698</v>
+        <v>-0.6019289904549435</v>
       </c>
       <c r="E21" t="n">
-        <v>-16.65085577034229</v>
+        <v>-34.48799071963868</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.5376103527207819</v>
+        <v>0.724316019964014</v>
       </c>
       <c r="B22" t="n">
-        <v>2.460546499776047</v>
+        <v>1.943018961581972</v>
       </c>
       <c r="C22" t="n">
-        <v>1.261586075794204</v>
+        <v>0.7211052092678258</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2599447193448999</v>
+        <v>-0.5785078289710793</v>
       </c>
       <c r="E22" t="n">
-        <v>-14.89373532517545</v>
+        <v>-33.1460570153189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.564490870356821</v>
+        <v>0.7605318209622146</v>
       </c>
       <c r="B23" t="n">
-        <v>2.594098140946177</v>
+        <v>2.053542335054975</v>
       </c>
       <c r="C23" t="n">
-        <v>1.226066367479603</v>
+        <v>0.6489292629607778</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2272677948657757</v>
+        <v>-0.5538031679736147</v>
       </c>
       <c r="E23" t="n">
-        <v>-13.0214854650539</v>
+        <v>-31.73058420586272</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.5913713879928602</v>
+        <v>0.7967476219604153</v>
       </c>
       <c r="B24" t="n">
-        <v>2.728738954761222</v>
+        <v>2.165814883831479</v>
       </c>
       <c r="C24" t="n">
-        <v>1.194928901410379</v>
+        <v>0.5795055054969369</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1925075141433495</v>
+        <v>-0.5278069066081913</v>
       </c>
       <c r="E24" t="n">
-        <v>-11.02986808496893</v>
+        <v>-30.24110814650496</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.6182519056288992</v>
+        <v>0.832963422958616</v>
       </c>
       <c r="B25" t="n">
-        <v>2.864380564171302</v>
+        <v>2.279854052408832</v>
       </c>
       <c r="C25" t="n">
-        <v>1.168489454845959</v>
+        <v>0.5130235429856163</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1555821999492188</v>
+        <v>-0.5005104652769643</v>
       </c>
       <c r="E25" t="n">
-        <v>-8.914203424450728</v>
+        <v>-28.67713726249919</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.6451324232649382</v>
+        <v>0.8691792239568167</v>
       </c>
       <c r="B26" t="n">
-        <v>3.000905774885905</v>
+        <v>2.395665234217337</v>
       </c>
       <c r="C26" t="n">
-        <v>1.147075501980531</v>
+        <v>0.4496788235743806</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1164015760235862</v>
+        <v>-0.4719047739331893</v>
       </c>
       <c r="E26" t="n">
-        <v>-6.669319034822683</v>
+        <v>-27.03815187844697</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.6720129409009774</v>
+        <v>0.9053950249550173</v>
       </c>
       <c r="B27" t="n">
-        <v>3.13816500501282</v>
+        <v>2.513240808323908</v>
       </c>
       <c r="C27" t="n">
-        <v>1.131025757965246</v>
+        <v>0.3896724265597211</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.07486573082422021</v>
+        <v>-0.441980259584287</v>
       </c>
       <c r="E27" t="n">
-        <v>-4.289490406390292</v>
+        <v>-25.3236035022762</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.6988934585370165</v>
+        <v>0.9416108259532181</v>
       </c>
       <c r="B28" t="n">
-        <v>3.27597229855037</v>
+        <v>2.632559137578396</v>
       </c>
       <c r="C28" t="n">
-        <v>1.120689395653238</v>
+        <v>0.3332107615728607</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.03086390726137847</v>
+        <v>-0.4107268329654952</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.768371625360161</v>
+        <v>-23.5329140616976</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.7257739761730556</v>
+        <v>0.9778266269514188</v>
       </c>
       <c r="B29" t="n">
-        <v>3.414100877131886</v>
+        <v>2.753583531139724</v>
       </c>
       <c r="C29" t="n">
-        <v>1.116424853820902</v>
+        <v>0.2805051691534261</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01572691683700274</v>
+        <v>-0.3781338743431645</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9010859595134911</v>
+        <v>-21.66547509079353</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.7526544938090947</v>
+        <v>1.014042427949619</v>
       </c>
       <c r="B30" t="n">
-        <v>3.552278181283767</v>
+        <v>2.876261175293962</v>
       </c>
       <c r="C30" t="n">
-        <v>1.118598135971923</v>
+        <v>0.2317714135631078</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06504370150367365</v>
+        <v>-0.3441902184034877</v>
       </c>
       <c r="E30" t="n">
-        <v>3.726729580069227</v>
+        <v>-19.72064686420588</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.7795350114451338</v>
+        <v>1.05025822894782</v>
       </c>
       <c r="B31" t="n">
-        <v>3.690180350005562</v>
+        <v>3.000522037570412</v>
       </c>
       <c r="C31" t="n">
-        <v>1.127580474187301</v>
+        <v>0.1872290582652156</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1172393258904294</v>
+        <v>-0.3088841381789377</v>
       </c>
       <c r="E31" t="n">
-        <v>6.717318566480448</v>
+        <v>-17.69775747618887</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8064155290811729</v>
+        <v>1.086474029946021</v>
       </c>
       <c r="B32" t="n">
-        <v>3.827426086297172</v>
+        <v>3.126277750383729</v>
       </c>
       <c r="C32" t="n">
-        <v>1.143745201458843</v>
+        <v>0.1471007141181505</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1724849479182087</v>
+        <v>-0.2722033279609016</v>
       </c>
       <c r="E32" t="n">
-        <v>9.882659545247174</v>
+        <v>-15.59610186157506</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.833296046717212</v>
+        <v>1.122689830944221</v>
       </c>
       <c r="B33" t="n">
-        <v>3.963569857239248</v>
+        <v>3.253420481788657</v>
       </c>
       <c r="C33" t="n">
-        <v>1.167463636728925</v>
+        <v>0.1116111500173442</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2309728315288771</v>
+        <v>-0.2341348851429262</v>
       </c>
       <c r="E33" t="n">
-        <v>13.23376842879085</v>
+        <v>-13.41494075546995</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8601765643532511</v>
+        <v>1.158905631942422</v>
       </c>
       <c r="B34" t="n">
-        <v>4.098094381738711</v>
+        <v>3.381821802437416</v>
       </c>
       <c r="C34" t="n">
-        <v>1.199099737092002</v>
+        <v>0.08098625548976654</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2929197563761843</v>
+        <v>-0.1946652909345802</v>
       </c>
       <c r="E34" t="n">
-        <v>16.78306577635565</v>
+        <v>-11.15349958823773</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8870570819892901</v>
+        <v>1.195121432940623</v>
       </c>
       <c r="B35" t="n">
-        <v>4.230402369148874</v>
+        <v>3.511331559485492</v>
       </c>
       <c r="C35" t="n">
-        <v>1.239003208187407</v>
+        <v>0.05545184461896328</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3585711591864477</v>
+        <v>-0.1537803898811876</v>
       </c>
       <c r="E35" t="n">
-        <v>20.54461407649705</v>
+        <v>-8.810967312068364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9139375996253293</v>
+        <v>1.231337233938824</v>
       </c>
       <c r="B36" t="n">
-        <v>4.359807490803462</v>
+        <v>3.641776770005932</v>
       </c>
       <c r="C36" t="n">
-        <v>1.287500682632485</v>
+        <v>0.03523229068103254</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4282062027025618</v>
+        <v>-0.1114653681195327</v>
       </c>
       <c r="E36" t="n">
-        <v>24.53440817618021</v>
+        <v>-6.3864951551213</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9408181172613683</v>
+        <v>1.267553034937024</v>
       </c>
       <c r="B37" t="n">
-        <v>4.485524598854391</v>
+        <v>3.772960548450054</v>
       </c>
       <c r="C37" t="n">
-        <v>1.344884471992378</v>
+        <v>0.02054898103046932</v>
       </c>
       <c r="D37" t="n">
-        <v>0.502144032270546</v>
+        <v>-0.06770473029406145</v>
       </c>
       <c r="E37" t="n">
-        <v>28.7707337567833</v>
+        <v>-3.87919529892125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9676986348974075</v>
+        <v>1.303768835935225</v>
       </c>
       <c r="B38" t="n">
-        <v>4.606659260010592</v>
+        <v>3.904661084836499</v>
       </c>
       <c r="C38" t="n">
-        <v>1.41139826307785</v>
+        <v>0.01161858212037695</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5807515694460702</v>
+        <v>-0.0224822750520533</v>
       </c>
       <c r="E38" t="n">
-        <v>33.27461387485855</v>
+        <v>-1.288139474334917</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9945791525334465</v>
+        <v>1.339984636933426</v>
       </c>
       <c r="B39" t="n">
-        <v>4.722196757155428</v>
+        <v>4.036630692661015</v>
       </c>
       <c r="C39" t="n">
-        <v>1.4872189547886</v>
+        <v>0.008651105108825401</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6644533181766762</v>
+        <v>0.02421893097033651</v>
       </c>
       <c r="E39" t="n">
-        <v>38.07037081498677</v>
+        <v>1.387642528918962</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.021459670169486</v>
+        <v>1.376200437931626</v>
       </c>
       <c r="B40" t="n">
-        <v>4.830990846973828</v>
+        <v>4.16859494799322</v>
       </c>
       <c r="C40" t="n">
-        <v>1.572433604694444</v>
+        <v>0.01184776333072056</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7537438401983456</v>
+        <v>0.07241658076640689</v>
       </c>
       <c r="E40" t="n">
-        <v>43.18634087734836</v>
+        <v>4.149164444683367</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.048340187805525</v>
+        <v>1.412416238929827</v>
       </c>
       <c r="B41" t="n">
-        <v>4.931752774296374</v>
+        <v>4.300251943856724</v>
       </c>
       <c r="C41" t="n">
-        <v>1.667010158555513</v>
+        <v>0.02139861404509238</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8492038206968823</v>
+        <v>0.1221291562846347</v>
       </c>
       <c r="E41" t="n">
-        <v>48.65579487231566</v>
+        <v>6.997485210603202</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.075220705441564</v>
+        <v>1.448632039928028</v>
       </c>
       <c r="B42" t="n">
-        <v>5.02304137780452</v>
+        <v>4.431271686763377</v>
       </c>
       <c r="C42" t="n">
-        <v>1.77076024967606</v>
+        <v>0.0374799783480709</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9515210387976034</v>
+        <v>0.1733759595732904</v>
       </c>
       <c r="E42" t="n">
-        <v>54.51813964100653</v>
+        <v>9.933710752580323</v>
       </c>
     </row>
   </sheetData>
